--- a/CC_Log_2025-05-28.xlsx
+++ b/CC_Log_2025-05-28.xlsx
@@ -1391,7 +1391,11 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>test add 77</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CC_Log_2025-05-28.xlsx
+++ b/CC_Log_2025-05-28.xlsx
@@ -477,7 +477,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>TEST</t>
         </is>
       </c>
     </row>
@@ -1391,11 +1391,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>test add 77</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CC_Log_2025-05-28.xlsx
+++ b/CC_Log_2025-05-28.xlsx
@@ -475,11 +475,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1390,7 +1386,11 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Tracked</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
     </row>
   </sheetData>
